--- a/evidence.xlsx
+++ b/evidence.xlsx
@@ -14,17 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>○エビデンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2-1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -397,20 +389,13 @@
     <col min="6" max="6" width="3.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B64" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="B64" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
